--- a/datatables/Datas/__enums__.xlsx
+++ b/datatables/Datas/__enums__.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\luban_examples\MiniTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\导表工具\datatables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E1AAA0-A88D-4E41-AC05-256E9DB382D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -77,13 +76,154 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>建筑类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公府</t>
+  </si>
+  <si>
+    <t>兵营</t>
+  </si>
+  <si>
+    <t>伐木场</t>
+  </si>
+  <si>
+    <t>食堂</t>
+  </si>
+  <si>
+    <t>庭院</t>
+  </si>
+  <si>
+    <t>仓库</t>
+  </si>
+  <si>
+    <t>设计院</t>
+  </si>
+  <si>
+    <t>会计</t>
+  </si>
+  <si>
+    <t>议事厅</t>
+  </si>
+  <si>
+    <t>治安亭</t>
+  </si>
+  <si>
+    <t>澡堂</t>
+  </si>
+  <si>
+    <t>报名处</t>
+  </si>
+  <si>
+    <t>训练场</t>
+  </si>
+  <si>
+    <t>特训营</t>
+  </si>
+  <si>
+    <t>伐木屋</t>
+  </si>
+  <si>
+    <t>加工厂</t>
+  </si>
+  <si>
+    <t>工坊</t>
+  </si>
+  <si>
+    <t>粮仓</t>
+  </si>
+  <si>
+    <t>包子铺</t>
+  </si>
+  <si>
+    <t>售卖处</t>
+  </si>
+  <si>
+    <t>民居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LORD_HALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUMBERYARD</t>
+  </si>
+  <si>
+    <t>CANTEEN</t>
+  </si>
+  <si>
+    <t>BARRACKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COURTYARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAREHOUSE</t>
+  </si>
+  <si>
+    <t>DESIGN_HOUSE</t>
+  </si>
+  <si>
+    <t>ACCOUNTING</t>
+  </si>
+  <si>
+    <t>COUNCIL_HALL</t>
+  </si>
+  <si>
+    <t>GUARD_POST</t>
+  </si>
+  <si>
+    <t>BATHHOUSE</t>
+  </si>
+  <si>
+    <t>REGISTRATION</t>
+  </si>
+  <si>
+    <t>TRAINING_GROUND</t>
+  </si>
+  <si>
+    <t>SPECIAL_CAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUMBER_HUT</t>
+  </si>
+  <si>
+    <t>PROCESSING_PLANT</t>
+  </si>
+  <si>
+    <t>WORKSHOP</t>
+  </si>
+  <si>
+    <t>GRANARY</t>
+  </si>
+  <si>
+    <t>BUN_SHOP</t>
+  </si>
+  <si>
+    <t>BuildType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VENDOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOLK_HOUSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,11 +234,20 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,8 +260,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -135,13 +296,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -152,6 +374,33 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -428,11 +677,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD13"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -442,10 +691,9 @@
     <col min="4" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="5.25" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="21.875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="10" max="11" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -470,13 +718,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -488,7 +736,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -520,7 +768,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -533,6 +781,328 @@
         <v>18</v>
       </c>
       <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="11">
+        <v>101</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="11">
+        <v>102</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="11">
+        <v>103</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="11">
+        <v>104</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1011</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1012</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1013</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1014</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="11">
+        <v>1015</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1016</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1018</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1021</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="11">
+        <v>1022</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1023</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="11">
+        <v>1031</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="11">
+        <v>1032</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="11">
+        <v>1033</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1041</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="11">
+        <v>1042</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1043</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="11">
+        <v>301</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="I29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -540,6 +1110,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>